--- a/pesantren/bagian bahasa/laporan/2023.xlsx
+++ b/pesantren/bagian bahasa/laporan/2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100AF3FE-CB95-4FDC-971B-87098B8052F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626EE50B-EB29-454E-BAE1-3D3CEB725F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,10 @@
     <t>Berjalan dan banyak pelanggaran</t>
   </si>
   <si>
-    <t>Beberapa putri memilih tidak berbicara, sehingga dibijaki dengan program Islah, sampai pertengahan Oktober</t>
-  </si>
-  <si>
     <t>Sekali tidak berjalan</t>
+  </si>
+  <si>
+    <t>Beberapa putri memilih tidak berbicara, sehingga dibijaki dengan program Islah, sampai pertengahan Oktober. Perlu evaluasi lagi karena di putri nggak maksimal melaksanakan jasus</t>
   </si>
 </sst>
 </file>
@@ -177,6 +177,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -184,15 +193,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +562,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,80 +572,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:C8">

--- a/pesantren/bagian bahasa/laporan/2023.xlsx
+++ b/pesantren/bagian bahasa/laporan/2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626EE50B-EB29-454E-BAE1-3D3CEB725F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F3B69E-565A-46C9-A30E-6AB1ADEB2A3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Putra</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Beberapa putri memilih tidak berbicara, sehingga dibijaki dengan program Islah, sampai pertengahan Oktober. Perlu evaluasi lagi karena di putri nggak maksimal melaksanakan jasus</t>
+  </si>
+  <si>
+    <t>Jaga ritme supaya jangan kalah dengan program utama, yaitu menghafal</t>
+  </si>
+  <si>
+    <t>Divideo ngetik 10 jari, kirim ke Ustadz Iskandar</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -193,6 +199,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5290F465-49BA-4608-8FE9-FAFED86E7167}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +655,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:C8">

--- a/pesantren/bagian bahasa/laporan/2023.xlsx
+++ b/pesantren/bagian bahasa/laporan/2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F3B69E-565A-46C9-A30E-6AB1ADEB2A3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A0456-D3E4-4BD4-9D1D-177CDBB23A89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Putra</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>Divideo ngetik 10 jari, kirim ke Ustadz Iskandar</t>
+  </si>
+  <si>
+    <t>Merah</t>
+  </si>
+  <si>
+    <t>Coklat</t>
+  </si>
+  <si>
+    <t>Senin</t>
+  </si>
+  <si>
+    <t>Selasa</t>
+  </si>
+  <si>
+    <t>Rabu</t>
+  </si>
+  <si>
+    <t>Kamis</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>Hijau</t>
+  </si>
+  <si>
+    <t>Kuning</t>
+  </si>
+  <si>
+    <t>Abu-Abu</t>
   </si>
 </sst>
 </file>
@@ -188,6 +218,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -199,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,10 +598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5290F465-49BA-4608-8FE9-FAFED86E7167}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,10 +634,10 @@
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -624,46 +654,86 @@
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
